--- a/PlanilhaComCPF.xlsx
+++ b/PlanilhaComCPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adtsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F0CAB-7C5A-458B-A7A3-EAB41F35AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005E869-7386-469D-88CB-E2E9BFFE6A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>258.231.698-92</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,18 +343,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>